--- a/database/FileExcel/Catarticle.xlsx
+++ b/database/FileExcel/Catarticle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yovie\persediaanapp-magang\database\FileExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FF4D0A-F4B9-4DEA-AE62-BD8968B861A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0479E1-8E33-4D41-AFC0-6EDCA1BB25A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1440" yWindow="1440" windowWidth="11440" windowHeight="7810" xr2:uid="{B1A6D6DA-43F5-4D03-876B-1BE0E6BF7134}"/>
+    <workbookView xWindow="6830" yWindow="1220" windowWidth="11440" windowHeight="7810" xr2:uid="{B1A6D6DA-43F5-4D03-876B-1BE0E6BF7134}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -46,46 +46,40 @@
     <t>slug</t>
   </si>
   <si>
-    <t>Kemeja</t>
-  </si>
-  <si>
-    <t>kemeja</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
     <t>nama_cat</t>
   </si>
   <si>
-    <t>Kaos</t>
-  </si>
-  <si>
-    <t>kaos</t>
-  </si>
-  <si>
-    <t>Jaket</t>
-  </si>
-  <si>
-    <t>jaket</t>
-  </si>
-  <si>
-    <t>Jersey</t>
-  </si>
-  <si>
-    <t>jersey</t>
-  </si>
-  <si>
-    <t>Celana</t>
-  </si>
-  <si>
-    <t>Sandal</t>
-  </si>
-  <si>
-    <t>celana</t>
-  </si>
-  <si>
-    <t>sandal</t>
+    <t>Kain Kaos</t>
+  </si>
+  <si>
+    <t>Kain Jaket</t>
+  </si>
+  <si>
+    <t>Kain Jersey</t>
+  </si>
+  <si>
+    <t>Kain Kemeja</t>
+  </si>
+  <si>
+    <t>Kain Celana</t>
+  </si>
+  <si>
+    <t>kain-kaos</t>
+  </si>
+  <si>
+    <t>kain-jaket</t>
+  </si>
+  <si>
+    <t>kain-jersey</t>
+  </si>
+  <si>
+    <t>kain-kemeja</t>
+  </si>
+  <si>
+    <t>kain-celana</t>
   </si>
 </sst>
 </file>
@@ -454,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC210C0-9D73-46BA-9C56-AD0FD5D86CE8}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -467,13 +461,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -487,10 +481,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -504,10 +498,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -519,7 +513,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -533,10 +527,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -547,26 +541,12 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7">
         <v>1</v>
       </c>
     </row>
